--- a/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32I_Base_Instructions.xlsx
+++ b/verif/CV32E40P/FormalVerificationPlan/base_instruction_set/CV32E40P_RV32I_Base_Instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salah\Documents\OneSpin\Work\RISC-V\OpenHW\core_v_doc\core-v-docs-formal_vplan\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntusinschi\Dropbox\OpenHW-Project\forkHW\core-v-docs\verif\CV32E40P\FormalVerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ABD6E8-252F-4327-9826-3A78AEADC4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C8689-F0E3-4C85-8E25-3867B0EAE20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RV32I" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="135">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -577,37 +577,6 @@
   </si>
   <si>
     <t>RV32I
-Environment Call and Breakpoints</t>
-  </si>
-  <si>
-    <t>ECALL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>TBD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>: requires specification of the CV32E40P execution environment interface.</t>
-    </r>
-  </si>
-  <si>
-    <t>EBREAK</t>
-  </si>
-  <si>
-    <t>RV32I
 HINT Instructions</t>
   </si>
   <si>
@@ -682,10 +651,6 @@
   <si>
     <t>Unprivileged ISA
 Chapter 2.7</t>
-  </si>
-  <si>
-    <t>Unprivileged ISA
-Chapter 2.8</t>
   </si>
   <si>
     <t>Unprivileged ISA
@@ -1136,9 +1101,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1155,8 +1117,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1164,11 +1132,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,28 +1517,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM66"/>
+  <dimension ref="A1:AMM64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="1025" width="17" style="1" customWidth="1"/>
-    <col min="1026" max="1027" width="9.140625" style="1" customWidth="1"/>
+    <col min="1026" max="1027" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1">
@@ -1611,9 +1576,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="42.75">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A2" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>25</v>
@@ -1622,13 +1587,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>13</v>
@@ -1640,13 +1605,13 @@
         <v>19</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="43.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
@@ -1655,11 +1620,11 @@
       <c r="D3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>138</v>
+      <c r="E3" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>13</v>
@@ -1671,26 +1636,26 @@
         <v>19</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="43.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>13</v>
@@ -1702,13 +1667,13 @@
         <v>19</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
@@ -1717,11 +1682,11 @@
       <c r="D5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>138</v>
+      <c r="E5" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>13</v>
@@ -1733,13 +1698,13 @@
         <v>19</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
@@ -1748,11 +1713,11 @@
       <c r="D6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>138</v>
+      <c r="E6" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>13</v>
@@ -1764,13 +1729,13 @@
         <v>19</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -1779,11 +1744,11 @@
       <c r="D7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>138</v>
+      <c r="E7" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>13</v>
@@ -1795,13 +1760,13 @@
         <v>19</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -1810,11 +1775,11 @@
       <c r="D8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>138</v>
+      <c r="E8" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>13</v>
@@ -1826,13 +1791,13 @@
         <v>19</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -1841,11 +1806,11 @@
       <c r="D9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>138</v>
+      <c r="E9" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>13</v>
@@ -1857,13 +1822,13 @@
         <v>19</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
@@ -1872,11 +1837,11 @@
       <c r="D10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>138</v>
+      <c r="E10" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
@@ -1888,13 +1853,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
@@ -1903,11 +1868,11 @@
       <c r="D11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>138</v>
+      <c r="E11" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>13</v>
@@ -1919,26 +1884,26 @@
         <v>19</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="57.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="55.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
@@ -1950,15 +1915,15 @@
         <v>19</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A13" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>44</v>
@@ -1967,13 +1932,13 @@
         <v>45</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>13</v>
@@ -1985,13 +1950,13 @@
         <v>19</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="43.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
@@ -2000,11 +1965,11 @@
       <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>138</v>
+      <c r="E14" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>13</v>
@@ -2016,13 +1981,13 @@
         <v>19</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="43.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
@@ -2031,11 +1996,11 @@
       <c r="D15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>138</v>
+      <c r="E15" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>13</v>
@@ -2047,13 +2012,13 @@
         <v>19</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -2062,11 +2027,11 @@
       <c r="D16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>138</v>
+      <c r="E16" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>13</v>
@@ -2078,13 +2043,13 @@
         <v>19</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -2093,11 +2058,11 @@
       <c r="D17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>138</v>
+      <c r="E17" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>13</v>
@@ -2109,13 +2074,13 @@
         <v>19</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
@@ -2124,11 +2089,11 @@
       <c r="D18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>138</v>
+      <c r="E18" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>13</v>
@@ -2140,13 +2105,13 @@
         <v>19</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -2155,11 +2120,11 @@
       <c r="D19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>138</v>
+      <c r="E19" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>13</v>
@@ -2171,13 +2136,13 @@
         <v>19</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -2186,11 +2151,11 @@
       <c r="D20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>138</v>
+      <c r="E20" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>13</v>
@@ -2202,13 +2167,13 @@
         <v>19</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -2217,11 +2182,11 @@
       <c r="D21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>138</v>
+      <c r="E21" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>13</v>
@@ -2233,13 +2198,13 @@
         <v>19</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="41.4">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
@@ -2248,11 +2213,11 @@
       <c r="D22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>138</v>
+      <c r="E22" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>13</v>
@@ -2264,61 +2229,61 @@
         <v>19</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="22" customFormat="1" ht="41.4">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A24" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A24" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>138</v>
+        <v>121</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>13</v>
@@ -2330,26 +2295,26 @@
         <v>19</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="4" customFormat="1" ht="42.75">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>138</v>
+      <c r="E25" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>13</v>
@@ -2361,26 +2326,26 @@
         <v>19</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>13</v>
@@ -2392,26 +2357,26 @@
         <v>19</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>138</v>
+        <v>119</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>13</v>
@@ -2423,26 +2388,26 @@
         <v>19</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>138</v>
+        <v>118</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>13</v>
@@ -2454,26 +2419,26 @@
         <v>19</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>138</v>
+      <c r="E29" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>13</v>
@@ -2485,26 +2450,26 @@
         <v>19</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>138</v>
+      <c r="E30" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>13</v>
@@ -2516,26 +2481,26 @@
         <v>19</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>138</v>
+      <c r="E31" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>13</v>
@@ -2547,26 +2512,26 @@
         <v>19</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>138</v>
+      <c r="E32" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>13</v>
@@ -2578,30 +2543,30 @@
         <v>19</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A33" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A33" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>13</v>
@@ -2613,26 +2578,26 @@
         <v>19</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>13</v>
@@ -2644,26 +2609,26 @@
         <v>19</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>13</v>
@@ -2675,26 +2640,26 @@
         <v>19</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>13</v>
@@ -2706,26 +2671,26 @@
         <v>19</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" ht="43.5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>13</v>
@@ -2737,26 +2702,26 @@
         <v>19</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>13</v>
@@ -2768,26 +2733,26 @@
         <v>19</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="4" customFormat="1" ht="42.75">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>13</v>
@@ -2799,596 +2764,592 @@
         <v>19</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="4" customFormat="1" ht="42.75">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F40" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="41.4">
+      <c r="A41" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="4" customFormat="1" ht="28.5">
-      <c r="A41" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>115</v>
+      <c r="E41" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E42" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="4" customFormat="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="15" t="s">
+      <c r="E43" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="E44" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="25" t="s">
+      <c r="E45" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="4" customFormat="1">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="4" customFormat="1">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="4" customFormat="1">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="4" customFormat="1">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="4" customFormat="1">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="E56" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="4" customFormat="1">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="4" customFormat="1">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="4" customFormat="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="4" customFormat="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="4" customFormat="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="4" customFormat="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="4" customFormat="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="4" customFormat="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="4" customFormat="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="4" customFormat="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="4" customFormat="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="4" customFormat="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="4" customFormat="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="4" customFormat="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="4" customFormat="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="4" customFormat="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="D58" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>13</v>
@@ -3400,26 +3361,26 @@
         <v>19</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="4" customFormat="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>13</v>
@@ -3431,26 +3392,26 @@
         <v>19</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="4" customFormat="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="8" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>13</v>
@@ -3462,26 +3423,26 @@
         <v>19</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="4" customFormat="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>13</v>
@@ -3493,26 +3454,26 @@
         <v>19</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="4" customFormat="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>13</v>
@@ -3524,26 +3485,26 @@
         <v>19</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="4" customFormat="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>138</v>
+        <v>94</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>13</v>
@@ -3555,98 +3516,34 @@
         <v>19</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="4" customFormat="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="4" customFormat="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="5" customFormat="1">
-      <c r="A66" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="5" customFormat="1">
+      <c r="A64" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="6"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="B24:B32"/>
-    <mergeCell ref="A44:A65"/>
-    <mergeCell ref="B44:B65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A63"/>
+    <mergeCell ref="B42:B63"/>
+    <mergeCell ref="A64:J64"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="B33:B40"/>
   </mergeCells>
@@ -3659,25 +3556,25 @@
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$55</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F65</xm:sqref>
+          <xm:sqref>F2:F63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDDA95CE-2B91-4BF6-A07B-87518765EC90}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G65</xm:sqref>
+          <xm:sqref>G2:G63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C1B4F20-53D1-4A1B-832B-6E8BECAAA5F1}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$3:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H65</xm:sqref>
+          <xm:sqref>H2:H63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79222D68-7559-4143-9FDD-D11E5D5A8DF0}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I65</xm:sqref>
+          <xm:sqref>I2:I63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3693,15 +3590,15 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -3722,7 +3619,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3736,7 +3633,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3750,7 +3647,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -3764,7 +3661,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -3775,7 +3672,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3783,7 +3680,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -3791,42 +3688,42 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
